--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_83.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2795031055900621</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06785714285714287</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C', 'Bb/5', 'F']]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.148231, 28.899196)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:04:31.220000', '0:04:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:46.750000', '0:00:47.530000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2385964912280702</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(97.98, 122.64)]</t>
+          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(164.36, 206.12)]</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1013767209011264</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07984496124031007</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(20.567641, 27.754217)]</t>
+          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(51.315598, 59.809365)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:01:15.980000', '0:01:25.720000'), ('0:00:24.760000', '0:00:32.320000'), ('0:00:00.240000', '0:00:09.240000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:20.480000', '0:00:26.300000'), ('0:00:14.780000', '0:00:20.480000'), ('0:00:21.900000', '0:00:27.820000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5052631578947369</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2664728682170543</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj'], ['G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
+          <t>[['D:maj', 'G:maj', 'C:maj', 'G:maj', 'D:maj'], ['G:maj', 'D:maj', 'A/3', 'D/7', 'G/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:09.967000', '0:00:18.837000'), ('0:01:30.135000', '0:01:37.584000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:13.822000', '0:00:24.195000'), ('0:00:59.037000', '0:01:04.972000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2932330827067669</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'E:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(55.355744, 62.665581)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(55.151295, 61.374243)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1404761904761905</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(57.673129, 63.489727)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.142662, 9.133411)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.102281, 24.401147)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.58, 66.2)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(79.04, 91.18)]</t>
+          <t>[['Eb', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(219.56, 230.9)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:01.724648', '0:00:04.464603'), ('0:00:03.129454', '0:00:05.172811')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(39.58, 46.78)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.08, 30.92)]</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03434065934065934</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['G:min7', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D'], ['E:min7', 'A:7', 'D']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7), (22.68, 26.28)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.82, 12.93), (8.78, 11.89)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab:7', 'Db'], ['Eb:7', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['D:7', 'G:maj', 'D:7/C']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.1, 5.91), (94.88, 97.74), (21.5, 24.4)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.8, 13.6), (54.76, 62.82), (68.98, 77.12)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28), (40.82, 43.62), (94.8, 106.96)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (20.92, 24.02), (7.3, 10.3)]</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09930830039525691</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/b7']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(52.386, 56.294)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_184</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1860902255639098</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(26.115071, 38.793167)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.143514, 35.544512)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
